--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
@@ -543,10 +543,10 @@
         <v>1.850333</v>
       </c>
       <c r="I2">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J2">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.618118666666666</v>
+        <v>1.994783</v>
       </c>
       <c r="N2">
-        <v>7.854355999999999</v>
+        <v>5.984349</v>
       </c>
       <c r="O2">
-        <v>0.3278945548258764</v>
+        <v>0.2551127970612924</v>
       </c>
       <c r="P2">
-        <v>0.3278945548258765</v>
+        <v>0.2551127970612924</v>
       </c>
       <c r="Q2">
-        <v>1.614797122283111</v>
+        <v>1.230337604246333</v>
       </c>
       <c r="R2">
-        <v>14.533174100548</v>
+        <v>11.073038438217</v>
       </c>
       <c r="S2">
-        <v>0.2569487695437151</v>
+        <v>0.2341752248270326</v>
       </c>
       <c r="T2">
-        <v>0.2569487695437152</v>
+        <v>0.2341752248270326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.850333</v>
       </c>
       <c r="I3">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J3">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.293075666666666</v>
+        <v>4.293075666666667</v>
       </c>
       <c r="N3">
         <v>12.879227</v>
       </c>
       <c r="O3">
-        <v>0.537667047898823</v>
+        <v>0.5490414452695386</v>
       </c>
       <c r="P3">
-        <v>0.537667047898823</v>
+        <v>0.5490414452695387</v>
       </c>
       <c r="Q3">
         <v>2.647873192510111</v>
@@ -635,10 +635,10 @@
         <v>23.830858732591</v>
       </c>
       <c r="S3">
-        <v>0.4213332742142314</v>
+        <v>0.5039806131499664</v>
       </c>
       <c r="T3">
-        <v>0.4213332742142314</v>
+        <v>0.5039806131499666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1.850333</v>
       </c>
       <c r="I4">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J4">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.06084</v>
+        <v>1.506399333333333</v>
       </c>
       <c r="N4">
-        <v>3.18252</v>
+        <v>4.519197999999999</v>
       </c>
       <c r="O4">
-        <v>0.1328601579333109</v>
+        <v>0.1926534101292887</v>
       </c>
       <c r="P4">
-        <v>0.1328601579333109</v>
+        <v>0.1926534101292887</v>
       </c>
       <c r="Q4">
-        <v>0.6543024199066667</v>
+        <v>0.9291134658815555</v>
       </c>
       <c r="R4">
-        <v>5.88872177916</v>
+        <v>8.362021192933998</v>
       </c>
       <c r="S4">
-        <v>0.1041135133228319</v>
+        <v>0.1768419936216748</v>
       </c>
       <c r="T4">
-        <v>0.1041135133228319</v>
+        <v>0.1768419936216748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.850333</v>
       </c>
       <c r="I5">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J5">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01260166666666667</v>
+        <v>0.02496166666666666</v>
       </c>
       <c r="N5">
-        <v>0.037805</v>
+        <v>0.07488499999999999</v>
       </c>
       <c r="O5">
-        <v>0.001578239341989624</v>
+        <v>0.003192347539880258</v>
       </c>
       <c r="P5">
-        <v>0.001578239341989625</v>
+        <v>0.003192347539880258</v>
       </c>
       <c r="Q5">
-        <v>0.007772426562777777</v>
+        <v>0.01539579852277778</v>
       </c>
       <c r="R5">
-        <v>0.06995183906499999</v>
+        <v>0.138562186705</v>
       </c>
       <c r="S5">
-        <v>0.001236759351447802</v>
+        <v>0.002930345758773817</v>
       </c>
       <c r="T5">
-        <v>0.001236759351447802</v>
+        <v>0.002930345758773818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H6">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I6">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J6">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.618118666666666</v>
+        <v>1.994783</v>
       </c>
       <c r="N6">
-        <v>7.854355999999999</v>
+        <v>5.984349</v>
       </c>
       <c r="O6">
-        <v>0.3278945548258764</v>
+        <v>0.2551127970612924</v>
       </c>
       <c r="P6">
-        <v>0.3278945548258765</v>
+        <v>0.2551127970612924</v>
       </c>
       <c r="Q6">
-        <v>0.4458594999897778</v>
+        <v>0.110004303318</v>
       </c>
       <c r="R6">
-        <v>4.012735499908</v>
+        <v>0.990038729862</v>
       </c>
       <c r="S6">
-        <v>0.07094578528216125</v>
+        <v>0.02093757223425979</v>
       </c>
       <c r="T6">
-        <v>0.07094578528216126</v>
+        <v>0.02093757223425979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H7">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I7">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J7">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.293075666666666</v>
+        <v>4.293075666666667</v>
       </c>
       <c r="N7">
         <v>12.879227</v>
       </c>
       <c r="O7">
-        <v>0.537667047898823</v>
+        <v>0.5490414452695386</v>
       </c>
       <c r="P7">
-        <v>0.537667047898823</v>
+        <v>0.5490414452695387</v>
       </c>
       <c r="Q7">
-        <v>0.7311007688567777</v>
+        <v>0.236745950714</v>
       </c>
       <c r="R7">
-        <v>6.579906919711</v>
+        <v>2.130713556426</v>
       </c>
       <c r="S7">
-        <v>0.1163337736845916</v>
+        <v>0.04506083211957208</v>
       </c>
       <c r="T7">
-        <v>0.1163337736845916</v>
+        <v>0.04506083211957208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H8">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I8">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J8">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.06084</v>
+        <v>1.506399333333333</v>
       </c>
       <c r="N8">
-        <v>3.18252</v>
+        <v>4.519197999999999</v>
       </c>
       <c r="O8">
-        <v>0.1328601579333109</v>
+        <v>0.1926534101292887</v>
       </c>
       <c r="P8">
-        <v>0.1328601579333109</v>
+        <v>0.1926534101292887</v>
       </c>
       <c r="Q8">
-        <v>0.1806585767066667</v>
+        <v>0.08307189763599999</v>
       </c>
       <c r="R8">
-        <v>1.62592719036</v>
+        <v>0.7476470787239999</v>
       </c>
       <c r="S8">
-        <v>0.02874664461047906</v>
+        <v>0.01581141650761384</v>
       </c>
       <c r="T8">
-        <v>0.02874664461047906</v>
+        <v>0.01581141650761384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H9">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I9">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J9">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01260166666666667</v>
+        <v>0.02496166666666666</v>
       </c>
       <c r="N9">
-        <v>0.037805</v>
+        <v>0.07488499999999999</v>
       </c>
       <c r="O9">
-        <v>0.001578239341989624</v>
+        <v>0.003192347539880258</v>
       </c>
       <c r="P9">
-        <v>0.001578239341989625</v>
+        <v>0.003192347539880258</v>
       </c>
       <c r="Q9">
-        <v>0.002146034429444445</v>
+        <v>0.00137653607</v>
       </c>
       <c r="R9">
-        <v>0.019314309865</v>
+        <v>0.01238882463</v>
       </c>
       <c r="S9">
-        <v>0.0003414799905418224</v>
+        <v>0.0002620017811064402</v>
       </c>
       <c r="T9">
-        <v>0.0003414799905418225</v>
+        <v>0.0002620017811064402</v>
       </c>
     </row>
   </sheetData>
